--- a/MyGtn/MyGtn/static/template_for_import_EntityNaturalPerson3060.xlsx
+++ b/MyGtn/MyGtn/static/template_for_import_EntityNaturalPerson3060.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:workbookPr/>
   <s:bookViews>
     <s:workbookView activeTab="0"/>
   </s:bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>comment</t>
   </si>
@@ -47,49 +47,14 @@
   </si>
   <si>
     <t>groupfl</t>
-  </si>
-  <si>
-    <t>Описание ошибок</t>
-  </si>
-  <si>
-    <t>Ругиро</t>
-  </si>
-  <si>
-    <t>Акикава</t>
-  </si>
-  <si>
-    <t>Крумла</t>
-  </si>
-  <si>
-    <t>ываыва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Количество символов в серии ДУЛ отлично от 4;Серия ДУЛ содержит символы не являщиеся цифрами; Количество символов в номере ДУЛ отлично от 6;Номер ДУЛ содержит символы не являющиеся цифрами; Формат записи даты выдачи ДУЛ не соответствует одному из следующих шаблонов: ДД.ММ.ГГГГ или ГГГГ-ММ-ДД; </t>
-  </si>
-  <si>
-    <t>Ашхран</t>
-  </si>
-  <si>
-    <t>Тутаран</t>
-  </si>
-  <si>
-    <t>Бугивуги</t>
-  </si>
-  <si>
-    <t>Земля матушка!</t>
-  </si>
-  <si>
-    <t>Дубль записи в Системе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-  </numFmts>
-  <fonts count="24">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,172 +69,13 @@
       <color rgb="00000000"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,31 +90,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -607,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +412,7 @@
     <col customWidth="1" max="11" min="11" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,77 +445,6 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>45345345345</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>36526</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="13" t="n"/>
-      <c r="B3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="17" t="n"/>
-      <c r="F3" s="18" t="n">
-        <v>36526</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="20" t="n">
-        <v>5004</v>
-      </c>
-      <c r="I3" s="21" t="n">
-        <v>455433</v>
-      </c>
-      <c r="J3" s="22" t="n">
-        <v>40179</v>
-      </c>
-      <c r="K3" s="23" t="n"/>
-      <c r="L3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
